--- a/modelos/docentes_situacoes_docentes.xlsx
+++ b/modelos/docentes_situacoes_docentes.xlsx
@@ -47,17 +47,17 @@
     <t>Data de termino</t>
   </si>
   <si>
-    <t>0 ­ Em Exercício
-1 ­ Afastado para qualificação 
-2 ­ Afastado para tratamento de saúde
-3 ­ Afastado para exercício em outros orgãos/entidades
-4 ­ Afastado por outros motivos</t>
-  </si>
-  <si>
     <t>Fonte</t>
   </si>
   <si>
     <t>De onde vieram essas informações?</t>
+  </si>
+  <si>
+    <t>1 - Em exercício
+2 - Afastado para qualificação
+3 - Afastado para exercício em outros órgãos/entidades
+4 - Afastado por outros motivos
+5 - Afastado para tratamento de saúde</t>
   </si>
 </sst>
 </file>
@@ -207,13 +207,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -541,46 +541,46 @@
         <v>9</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="89.25">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>10</v>
+      <c r="B3" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="12.75">
       <c r="A5" s="8"/>
